--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -65,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,13 +348,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -363,6 +367,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -29,7 +29,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>Temperature (F)</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +371,9 @@
       <c r="A2" s="1">
         <v>42747</v>
       </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,6 +375,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42746</v>
+        <v>42748</v>
       </c>
     </row>
   </sheetData>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,6 +379,9 @@
       <c r="A3" s="1">
         <v>42748</v>
       </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,6 +383,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,6 +387,9 @@
       <c r="A4" s="1">
         <v>42749</v>
       </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +391,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,6 +395,9 @@
       <c r="A5" s="1">
         <v>42750</v>
       </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -65,9 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +400,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42751</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -351,8 +351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +404,9 @@
       <c r="A6" s="2">
         <v>42751</v>
       </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +408,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,6 +412,9 @@
       <c r="A7" s="1">
         <v>42752</v>
       </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +416,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +420,9 @@
       <c r="A8" s="1">
         <v>42753</v>
       </c>
+      <c r="B8">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +424,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42754</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +428,9 @@
       <c r="A9" s="1">
         <v>42754</v>
       </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +436,9 @@
       <c r="A10" s="1">
         <v>42755</v>
       </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +440,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +444,9 @@
       <c r="A11" s="1">
         <v>42756</v>
       </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +448,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +452,9 @@
       <c r="A12" s="1">
         <v>42757</v>
       </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +456,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +460,9 @@
       <c r="A13" s="1">
         <v>42758</v>
       </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +464,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +468,9 @@
       <c r="A14" s="1">
         <v>42759</v>
       </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +472,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Weather.xlsx
+++ b/Weather.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +476,9 @@
       <c r="A15" s="1">
         <v>42760</v>
       </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
